--- a/biology/Origine et évolution du vivant/Paléozoologie/Paléozoologie.xlsx
+++ b/biology/Origine et évolution du vivant/Paléozoologie/Paléozoologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pal%C3%A9ozoologie</t>
+          <t>Paléozoologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La paléozoologie est une discipline de la paléontologie étudiant les fossiles animaux invertébrés ou vertébrés et leurs traces (paléoichnologie qui étudie par les terriers, les pistes, les empreintes, les excréments, etc.).
 Le suffixe -zoïque qui termine le nom des ères montre la prédominance de la paléozoologie sur la paléobotanique dont certains spécialistes ont proposé, sans grand succès, de remplacer paléozoïque (ère primaire) par paléophytique, et ainsi de suite.
